--- a/Aplicacao_Producao/arquivos_para_previsao/brasileirao_serie_a_2024_1a._Rodada.xlsx
+++ b/Aplicacao_Producao/arquivos_para_previsao/brasileirao_serie_a_2024_1a._Rodada.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos Atuais\TCC_PUC_MINAS_POS_CIENCIA_DE_DADOS_2023\Aplicação Produção\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cursos Atuais\PUC MINAS - Ciência de Dados e Big Data\17 - TCC\Aplicacao_Producao\arquivos_para_previsao\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -39,9 +39,6 @@
     <t>colocacao_visitante_antes</t>
   </si>
   <si>
-    <t>publico</t>
-  </si>
-  <si>
     <t>Internacional</t>
   </si>
   <si>
@@ -112,12 +109,15 @@
   </si>
   <si>
     <t>Cuiabá-MT</t>
+  </si>
+  <si>
+    <t>publico_real</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -387,7 +387,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -406,10 +406,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -427,7 +427,7 @@
         <v>5</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -438,22 +438,22 @@
         <v>45395</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I2" s="3">
         <v>22045</v>
@@ -467,22 +467,22 @@
         <v>45395</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I3" s="3">
         <v>12408</v>
@@ -496,22 +496,22 @@
         <v>45395</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I4" s="3">
         <v>17645</v>
@@ -525,22 +525,22 @@
         <v>45395</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I5" s="3">
         <v>35055</v>
@@ -554,22 +554,22 @@
         <v>45396</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I6" s="3">
         <v>18055</v>
@@ -583,22 +583,22 @@
         <v>45396</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I7" s="3">
         <v>44597</v>
@@ -612,22 +612,22 @@
         <v>45396</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I8" s="3">
         <v>22169</v>
@@ -641,22 +641,22 @@
         <v>45396</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I9" s="3">
         <v>35195</v>
@@ -670,22 +670,22 @@
         <v>45396</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I10" s="3">
         <v>20701</v>
@@ -699,22 +699,22 @@
         <v>45396</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I11" s="3">
         <v>30793</v>
